--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43422,6 +43422,41 @@
         </is>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43457,6 +43457,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43492,6 +43492,43 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,43 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43566,6 +43566,43 @@
         </is>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,43 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,43 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,43 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43714,6 +43714,43 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,43 @@
         </is>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,78 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43860,6 +43860,78 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43932,6 +43932,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,41 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44004,6 +44004,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44041,6 +44041,41 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44076,6 +44076,76 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>6600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44146,6 +44146,41 @@
         <v>6600</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>13300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44181,6 +44181,41 @@
         <v>13300</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1724"/>
+  <dimension ref="A1:I1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62416,6 +62416,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1725" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1725"/>
+  <dimension ref="A1:I1726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62451,6 +62451,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1726" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1726"/>
+  <dimension ref="A1:I1727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62486,6 +62486,41 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1727" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1727"/>
+  <dimension ref="A1:I1728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62521,6 +62521,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1728" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1728"/>
+  <dimension ref="A1:I1729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62556,6 +62556,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1729" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>15200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1729"/>
+  <dimension ref="A1:I1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62591,6 +62591,43 @@
         <v>15200</v>
       </c>
     </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1730" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1730" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1730"/>
+  <dimension ref="A1:I1731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62628,6 +62628,43 @@
         </is>
       </c>
     </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1731" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1731" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1731"/>
+  <dimension ref="A1:I1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62665,6 +62665,43 @@
         </is>
       </c>
     </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1732" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1732" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1732"/>
+  <dimension ref="A1:I1733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62702,6 +62702,43 @@
         </is>
       </c>
     </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1733" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1733" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7003.xlsx
+++ b/data/7003.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1733"/>
+  <dimension ref="A1:I1734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62739,6 +62739,41 @@
         </is>
       </c>
     </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>Y&amp;G</t>
+        </is>
+      </c>
+      <c r="E1734" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>9400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
